--- a/results.xlsx
+++ b/results.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,12 +442,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Features</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Model</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Score</t>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Precision Test</t>
         </is>
       </c>
     </row>
@@ -457,16 +462,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>{'max_depth': 3, 'n_estimators': 10}</t>
+          <t>{'learning_rate': 0.1, 'max_depth': 3, 'n_estimators': 75, 'objective': 'binary:logistic'}</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>model_Healthcare_flag_surprise20</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.8216569318310283</v>
+          <t>[(0.058938783, 'Surprise_ratio_EMA1Y'), (0.05486359, 'Surprise_ratio_SMA1Y'), (0.014628632, 'SurpriseQ_ratio_SMA4Y'), (0.01303074, 'netIncomePerShare'), (0.012761196, 'ebitda'), (0.012048901, 'salesGeneralAndAdministrativeToRevenue'), (0.011758652, 'Surprise_ratio_EMA3Y'), (0.0111966, 'eps_growthratio_EMA1Y'), (0.011113376, 'priceToSalesRatio'), (0.011101828, 'fiveYShareholdersEquityGrowthPerShare')]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>model_Technology_flag_surprise5</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6690363349131122</v>
       </c>
     </row>
     <row r="3">
@@ -475,16 +485,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>{'max_depth': 1, 'n_estimators': 25}</t>
+          <t>{'learning_rate': 0.1, 'max_depth': 3, 'n_estimators': 50, 'objective': 'binary:logistic'}</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>model_Healthcare_flag_surprise-20</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.8749013327304015</v>
+          <t>[(0.07854615, 'Surprise_ratio_EMA1Y'), (0.04463048, 'Surprise_ratio_SMA1Y'), (0.019437578, 'netIncomePerShare'), (0.01847125, 'epsdiluted'), (0.017603608, 'epsEstimated'), (0.015804244, 'SurpriseQ_ratio_SMA4Y'), (0.015783513, 'incomeBeforeTax'), (0.013334431, 'Surprise_ratio_EMA3Y'), (0.012505018, 'eps_SMA1Y'), (0.012371075, 'accountPayables')]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>model_Technology_flag_surprise10</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6774193548387096</v>
       </c>
     </row>
     <row r="4">
@@ -493,16 +508,21 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>{'max_depth': 3, 'n_estimators': 10}</t>
+          <t>{'learning_rate': 0.1, 'max_depth': 3, 'n_estimators': 75, 'objective': 'binary:logistic'}</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>model_Industrials_flag_surprise20</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.8420350457639596</v>
+          <t>[(0.054108046, 'Surprise_ratio_EMA1Y'), (0.028573483, 'incomeBeforeTax'), (0.02547292, 'epsdiluted'), (0.024938416, 'Surprise_ratio_EMA3Y'), (0.02400578, 'epsEstimated'), (0.023493955, 'Surprise_ratio_SMA1Y'), (0.022517843, 'returnOnTangibleAssets'), (0.02044759, 'ebitda'), (0.01901733, 'netIncomePerShare'), (0.018273905, 'returnOnEquity')]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>model_Technology_flag_surprise20</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6143344709897611</v>
       </c>
     </row>
     <row r="5">
@@ -511,16 +531,21 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>{'max_depth': 1, 'n_estimators': 10}</t>
+          <t>{'learning_rate': 0.3, 'max_depth': 1, 'n_estimators': 100, 'objective': 'binary:logistic'}</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>model_Industrials_flag_surprise-20</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9280534650945121</v>
+          <t>[(0.13565761, 'Surprise_ratio_EMA1Y'), (0.047079194, 'Surprise_ratio_SMA3Y'), (0.037011787, 'fixedAssetTurnover'), (0.03699724, 'deferredRevenue'), (0.033754524, 'stockPrice'), (0.032273777, 'SurpriseQ_ratio_SMA2Y'), (0.03153638, 'goodwill'), (0.030235521, 'Surprise_ratio_SMA1Y'), (0.029701794, 'priceToOperatingCashFlowsRatio'), (0.028741008, 'SurpriseQ_ratio_SMA4Y')]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>model_Technology_flag_surprise-5</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4857142857142857</v>
       </c>
     </row>
     <row r="6">
@@ -529,16 +554,21 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>{'max_depth': 1, 'n_estimators': 25}</t>
+          <t>{'learning_rate': 0.1, 'max_depth': 3, 'n_estimators': 100, 'objective': 'binary:logistic'}</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>model_Financial Services_flag_surprise20</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0.8594696941226312</v>
+          <t>[(0.030803557, 'Surprise_ratio_EMA1Y'), (0.01763976, 'Surprise_ratio_SMA1Y'), (0.0151622705, 'returnOnTangibleAssets'), (0.011832893, 'freeCashFlow'), (0.011777019, 'capexPerShare'), (0.011028107, 'accountsReceivables'), (0.01000736, 'eps_SMA1Y'), (0.009946918, 'netProfitMargin'), (0.0097374655, 'incomeQuality'), (0.009300263, 'investmentsInPropertyPlantAndEquipment')]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>model_Technology_flag_surprise-10</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5428571428571428</v>
       </c>
     </row>
     <row r="7">
@@ -547,88 +577,21 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>{'max_depth': 2, 'n_estimators': 10}</t>
+          <t>{'learning_rate': 0.1, 'max_depth': 2, 'n_estimators': 100, 'objective': 'binary:logistic'}</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>model_Financial Services_flag_surprise-20</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0.9100606083382587</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>{'max_depth': 1, 'n_estimators': 75}</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>model_Technology_flag_surprise20</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0.7932307143451738</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>{'max_depth': 2, 'n_estimators': 50}</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
+          <t>[(0.048291646, 'Surprise_ratio_EMA1Y'), (0.030894777, 'Surprise_ratio_SMA1Y'), (0.023959706, 'longTermDebt'), (0.023133975, 'returnOnCapitalEmployed'), (0.022967504, 'depreciationAndAmortization_x'), (0.022846209, 'returnOnTangibleAssets'), (0.02152617, 'weightedAverageShsOut'), (0.02057818, 'deferrredTaxLiabilitiesNonCurrent'), (0.019552117, 'dcf'), (0.018981969, 'eps_SMA3Y')]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>model_Technology_flag_surprise-20</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>0.94304218049494</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>{'max_depth': 3, 'n_estimators': 25}</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>model_Consumer Cyclical_flag_surprise20</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0.8309081586811125</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>{'max_depth': 2, 'n_estimators': 10}</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>model_Consumer Cyclical_flag_surprise-20</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0.9173966738172959</v>
+      <c r="E7" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,11 @@
           <t>Precision Test</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Recall Test</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,21 +467,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>{'learning_rate': 0.1, 'max_depth': 3, 'n_estimators': 75, 'objective': 'binary:logistic'}</t>
+          <t>{'learning_rate': 0.1, 'max_depth': 2, 'n_estimators': 75, 'objective': 'binary:logistic'}</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[(0.058938783, 'Surprise_ratio_EMA1Y'), (0.05486359, 'Surprise_ratio_SMA1Y'), (0.014628632, 'SurpriseQ_ratio_SMA4Y'), (0.01303074, 'netIncomePerShare'), (0.012761196, 'ebitda'), (0.012048901, 'salesGeneralAndAdministrativeToRevenue'), (0.011758652, 'Surprise_ratio_EMA3Y'), (0.0111966, 'eps_growthratio_EMA1Y'), (0.011113376, 'priceToSalesRatio'), (0.011101828, 'fiveYShareholdersEquityGrowthPerShare')]</t>
+          <t>[(0.11484591, 'Surprise_ratio_EMA1Y'), (0.04882033, 'Surprise_ratio_SMA1Y'), (0.03420702, 'Surprise_ratio_SMA3Y'), (0.034005973, 'stockPrice'), (0.029803803, 'eps_growthratio_SMA3Y'), (0.022093251, 'incomeBeforeTax'), (0.020091547, 'SurpriseQ_ratio_SMA2Y'), (0.01906275, 'totalNonCurrentAssets'), (0.018555708, 'eps_growthratio_EMA1Y'), (0.017890109, 'eps_SMA1Y')]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>model_Technology_flag_surprise5</t>
+          <t>model_Industrials_flag_surprise5</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.6690363349131122</v>
+        <v>0.5956820412168793</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.5493212669683258</v>
       </c>
     </row>
     <row r="3">
@@ -485,21 +493,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>{'learning_rate': 0.1, 'max_depth': 3, 'n_estimators': 50, 'objective': 'binary:logistic'}</t>
+          <t>{'learning_rate': 0.1, 'max_depth': 3, 'n_estimators': 75, 'objective': 'binary:logistic'}</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[(0.07854615, 'Surprise_ratio_EMA1Y'), (0.04463048, 'Surprise_ratio_SMA1Y'), (0.019437578, 'netIncomePerShare'), (0.01847125, 'epsdiluted'), (0.017603608, 'epsEstimated'), (0.015804244, 'SurpriseQ_ratio_SMA4Y'), (0.015783513, 'incomeBeforeTax'), (0.013334431, 'Surprise_ratio_EMA3Y'), (0.012505018, 'eps_SMA1Y'), (0.012371075, 'accountPayables')]</t>
+          <t>[(0.075689495, 'Surprise_ratio_EMA1Y'), (0.033274334, 'epsEstimated'), (0.0297705, 'stockPrice'), (0.022768684, 'operatingIncome'), (0.021627616, 'incomeBeforeTax'), (0.018610716, 'Surprise_ratio_SMA1Y'), (0.018041812, 'SurpriseQ_ratio_SMA2Y'), (0.013568886, 'weightedAverageShsOut'), (0.013552866, 'netIncomeRatio'), (0.01346613, 'operatingIncomeRatio')]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>model_Technology_flag_surprise10</t>
+          <t>model_Industrials_flag_surprise10</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.5451713395638629</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.2393980848153215</v>
       </c>
     </row>
     <row r="4">
@@ -508,21 +519,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>{'learning_rate': 0.1, 'max_depth': 3, 'n_estimators': 75, 'objective': 'binary:logistic'}</t>
+          <t>{'learning_rate': 0.1, 'max_depth': 3, 'n_estimators': 100, 'objective': 'binary:logistic'}</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[(0.054108046, 'Surprise_ratio_EMA1Y'), (0.028573483, 'incomeBeforeTax'), (0.02547292, 'epsdiluted'), (0.024938416, 'Surprise_ratio_EMA3Y'), (0.02400578, 'epsEstimated'), (0.023493955, 'Surprise_ratio_SMA1Y'), (0.022517843, 'returnOnTangibleAssets'), (0.02044759, 'ebitda'), (0.01901733, 'netIncomePerShare'), (0.018273905, 'returnOnEquity')]</t>
+          <t>[(0.03229395, 'Surprise_ratio_SMA1Y'), (0.029795727, 'Surprise_ratio_EMA1Y'), (0.023526948, 'operatingIncome'), (0.022751503, 'incomeBeforeTax'), (0.022417493, 'eps_SMA1Y'), (0.021497954, 'SurpriseQ_ratio_SMA2Y'), (0.020766752, 'netIncome_x'), (0.020637326, 'incomeBeforeTaxRatio'), (0.018632682, 'operatingIncomeRatio'), (0.015583219, 'stockPrice')]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>model_Technology_flag_surprise20</t>
+          <t>model_Industrials_flag_surprise20</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.6143344709897611</v>
+        <v>0.4625</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0968586387434555</v>
       </c>
     </row>
     <row r="5">
@@ -531,21 +545,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>{'learning_rate': 0.3, 'max_depth': 1, 'n_estimators': 100, 'objective': 'binary:logistic'}</t>
+          <t>{'learning_rate': 0.1, 'max_depth': 2, 'n_estimators': 75, 'objective': 'binary:logistic'}</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[(0.13565761, 'Surprise_ratio_EMA1Y'), (0.047079194, 'Surprise_ratio_SMA3Y'), (0.037011787, 'fixedAssetTurnover'), (0.03699724, 'deferredRevenue'), (0.033754524, 'stockPrice'), (0.032273777, 'SurpriseQ_ratio_SMA2Y'), (0.03153638, 'goodwill'), (0.030235521, 'Surprise_ratio_SMA1Y'), (0.029701794, 'priceToOperatingCashFlowsRatio'), (0.028741008, 'SurpriseQ_ratio_SMA4Y')]</t>
+          <t>[(0.084654935, 'Surprise_ratio_EMA1Y'), (0.041444503, 'Surprise_ratio_SMA1Y'), (0.03281121, 'incomeBeforeTax'), (0.031188974, 'SurpriseQ_ratio_SMA2Y'), (0.030769637, 'netIncome_y'), (0.028883412, 'netIncome_x'), (0.027122175, 'Surprise_ratio_EMA3Y'), (0.022526385, 'totalCurrentLiabilities'), (0.022505796, 'goodwill'), (0.019330863, 'marketCapitalization')]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>model_Technology_flag_surprise-5</t>
+          <t>model_Industrials_flag_surprise-5</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.4857142857142857</v>
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.05783132530120482</v>
       </c>
     </row>
     <row r="6">
@@ -554,21 +571,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>{'learning_rate': 0.1, 'max_depth': 3, 'n_estimators': 100, 'objective': 'binary:logistic'}</t>
+          <t>{'learning_rate': 0.1, 'max_depth': 2, 'n_estimators': 100, 'objective': 'binary:logistic'}</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[(0.030803557, 'Surprise_ratio_EMA1Y'), (0.01763976, 'Surprise_ratio_SMA1Y'), (0.0151622705, 'returnOnTangibleAssets'), (0.011832893, 'freeCashFlow'), (0.011777019, 'capexPerShare'), (0.011028107, 'accountsReceivables'), (0.01000736, 'eps_SMA1Y'), (0.009946918, 'netProfitMargin'), (0.0097374655, 'incomeQuality'), (0.009300263, 'investmentsInPropertyPlantAndEquipment')]</t>
+          <t>[(0.058004435, 'Surprise_ratio_SMA3Y'), (0.049124032, 'Surprise_ratio_EMA1Y'), (0.035117984, 'Surprise_ratio_SMA1Y'), (0.02825871, 'eps_SMA3Y'), (0.026865156, 'incomeBeforeTax'), (0.026734266, 'marketCapitalization'), (0.025900465, 'returnOnTangibleAssets'), (0.021518214, 'SurpriseQ_ratio_SMA2Y'), (0.018357411, 'pretaxProfitMargin'), (0.017753376, 'eps_SMA1Y')]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>model_Technology_flag_surprise-10</t>
+          <t>model_Industrials_flag_surprise-10</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.5428571428571428</v>
+        <v>0.5625</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.09278350515463918</v>
       </c>
     </row>
     <row r="7">
@@ -577,21 +597,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>{'learning_rate': 0.1, 'max_depth': 2, 'n_estimators': 100, 'objective': 'binary:logistic'}</t>
+          <t>{'learning_rate': 0.1, 'max_depth': 3, 'n_estimators': 100, 'objective': 'binary:logistic'}</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[(0.048291646, 'Surprise_ratio_EMA1Y'), (0.030894777, 'Surprise_ratio_SMA1Y'), (0.023959706, 'longTermDebt'), (0.023133975, 'returnOnCapitalEmployed'), (0.022967504, 'depreciationAndAmortization_x'), (0.022846209, 'returnOnTangibleAssets'), (0.02152617, 'weightedAverageShsOut'), (0.02057818, 'deferrredTaxLiabilitiesNonCurrent'), (0.019552117, 'dcf'), (0.018981969, 'eps_SMA3Y')]</t>
+          <t>[(0.035504825, 'Surprise_ratio_EMA3Y'), (0.026987836, 'Surprise_ratio_EMA1Y'), (0.025362505, 'Surprise_ratio_SMA1Y'), (0.016531229, 'SurpriseQ_ratio_SMA2Y'), (0.014461072, 'incomeBeforeTax'), (0.013567598, 'returnOnTangibleAssets'), (0.012760248, 'totalAssets'), (0.012481365, 'marketCapitalization'), (0.01238964, 'eps_EMA3Y'), (0.011851782, 'incomeBeforeTaxRatio')]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>model_Technology_flag_surprise-20</t>
+          <t>model_Industrials_flag_surprise-20</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.06936416184971098</v>
       </c>
     </row>
   </sheetData>
